--- a/biology/Zoologie/Palaeogeron_vetustus/Palaeogeron_vetustus.xlsx
+++ b/biology/Zoologie/Palaeogeron_vetustus/Palaeogeron_vetustus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palaeogeron
 Palaeogeron vetustus, unique représentant du genre fossile Palaeogeron, est une espèce fossile d'insectes diptères de la famille des Bombyliidae.
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Paleogeron vetustus et le genre Palaeogeron sont décrits respectivement en 1915 et 1914 par le paléontologue belge Fernand Meunier (1868-1926)[1],[2].
-Confirmation genre
-Le genre Palaeogeron est confirmé par les entomologistes américain Neal Luit Evenhuis et britannique David Greathead (d) en 1999[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Paleogeron vetustus et le genre Palaeogeron sont décrits respectivement en 1915 et 1914 par le paléontologue belge Fernand Meunier (1868-1926),.
 </t>
         </is>
       </c>
@@ -542,12 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Confirmation genre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Palaeogeron est confirmé par les entomologistes américain Neal Luit Evenhuis et britannique David Greathead (d) en 1999,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Palaeogeron_vetustus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Palaeogeron_vetustus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le paléontologue français Nicolas Théobald (1903-1981) cite en 1937 cette espèce aux pages 287 et 349 de sa thèse , en comparant avec les genres Geron et Dischistus[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le paléontologue français Nicolas Théobald (1903-1981) cite en 1937 cette espèce aux pages 287 et 349 de sa thèse , en comparant avec les genres Geron et Dischistus.
 </t>
         </is>
       </c>
